--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryWorld/Top50_Recipients_Discretionary_International_HHS.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryWorld/Top50_Recipients_Discretionary_International_HHS.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,10 @@
     <t>Discretionary Awards to International Recipients</t>
   </si>
   <si>
-    <t>This page displays the number of discretionary awards and award dollars SAMHSA made in FY 2016, organized by international recipient. It is provided as a text alternative to the interactive chart on the International Recipient page of this website.</t>
-  </si>
-  <si>
-    <t>SAMHSA Discretionary Awards to International Recipients Description</t>
+    <t>This page displays the number of discretionary awards and award dollars HHS made in FY 2016, organized by international recipient. It is provided as a text alternative to the interactive chart on the International Recipient page of this website.</t>
+  </si>
+  <si>
+    <t>HHS Discretionary Awards to International Recipients Description</t>
   </si>
   <si>
     <t>This table contains discretionary awards made to international recipients in FY 2016.</t>
@@ -724,7 +724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,8 +860,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1209,26 +1224,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1586,6 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -1593,11 +1612,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -1605,8 +1624,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -1626,7 +1645,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1644,7 +1663,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1652,36 +1671,36 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1781,7 +1800,7 @@
         <v>53611375</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1820,7 @@
         <v>52284405</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1840,7 @@
         <v>44001362</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1981,7 +2000,7 @@
         <v>26822082</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2001,7 +2020,7 @@
         <v>19805908</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>19588463</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
@@ -2041,7 +2060,7 @@
         <v>19508837</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -2061,7 +2080,7 @@
         <v>19443004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -2121,7 +2140,7 @@
         <v>16889063</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>16498141</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>15456939</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
@@ -2241,7 +2260,7 @@
         <v>13918423</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -2301,7 +2320,7 @@
         <v>12314138</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>71</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>12144776</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>72</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>11186838</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>10510908</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +2440,7 @@
         <v>9815238</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>80</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>9768233</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -2461,7 +2480,7 @@
         <v>9736533</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -2501,7 +2520,7 @@
         <v>9455801</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -2521,7 +2540,7 @@
         <v>9304165</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -2541,7 +2560,7 @@
         <v>9093167</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>89</v>
       </c>
@@ -2561,7 +2580,7 @@
         <v>8828124</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2621,7 +2640,7 @@
         <v>8484737</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
@@ -2641,7 +2660,7 @@
         <v>8480269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
@@ -2781,7 +2800,7 @@
         <v>383515</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>246000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>122</v>
       </c>
@@ -2901,7 +2920,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>131</v>
       </c>
@@ -2921,7 +2940,7 @@
         <v>17194</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -3061,7 +3080,7 @@
         <v>3256871</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>148</v>
       </c>
@@ -3121,7 +3140,7 @@
         <v>3021313</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
@@ -3161,7 +3180,7 @@
         <v>2659630</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>157</v>
       </c>
@@ -3241,7 +3260,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>163</v>
       </c>
@@ -3321,7 +3340,7 @@
         <v>2252935</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
@@ -3341,7 +3360,7 @@
         <v>2251026</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>171</v>
       </c>
@@ -3401,7 +3420,7 @@
         <v>2052436</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>174</v>
       </c>
@@ -3581,7 +3600,7 @@
         <v>1616896</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>187</v>
       </c>
@@ -3661,7 +3680,7 @@
         <v>1380262</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>196</v>
       </c>
@@ -3681,7 +3700,7 @@
         <v>1340948</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>198</v>
       </c>
@@ -3721,7 +3740,7 @@
         <v>1315176</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>201</v>
       </c>
@@ -3741,7 +3760,7 @@
         <v>1294284</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>204</v>
       </c>
@@ -3761,7 +3780,7 @@
         <v>1271107</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>205</v>
       </c>
@@ -3781,7 +3800,7 @@
         <v>1230260</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>207</v>
       </c>
@@ -3801,7 +3820,7 @@
         <v>1222938</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>210</v>
       </c>
@@ -3901,7 +3920,7 @@
         <v>1104340</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>220</v>
       </c>
@@ -3921,7 +3940,7 @@
         <v>1057455</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>221</v>
       </c>
@@ -3941,7 +3960,7 @@
         <v>119990</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>224</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v>100353</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>228</v>
       </c>
